--- a/data/trans_bre/P38C-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P38C-Edad-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>9.108676788516313</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>14.73680814805057</v>
+        <v>14.73680814805056</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>0.1616231309922804</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.3302276285626662</v>
+        <v>0.330227628562666</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.19769957720892</v>
+        <v>2.537675627698589</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>4.640937752874338</v>
+        <v>4.625103620420481</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.03662295820891667</v>
+        <v>0.04381862961654848</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.08974529639865017</v>
+        <v>0.08940267018115312</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>16.47140501482145</v>
+        <v>15.72886893518919</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.09351036911513</v>
+        <v>25.4610607083</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.3164328753906112</v>
+        <v>0.3040755219640325</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.6562309574576206</v>
+        <v>0.6632598090570226</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>13.89712311298032</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>11.18091404511244</v>
+        <v>11.18091404511246</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.2031620594261076</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.1742458806360473</v>
+        <v>0.1742458806360475</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.997530639164959</v>
+        <v>8.716033720540194</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>4.046082111933561</v>
+        <v>4.040337727436662</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1260590092840318</v>
+        <v>0.1216304784103455</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05966125040461717</v>
+        <v>0.05928532167099324</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.92348382385904</v>
+        <v>18.7614604904137</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.57193852544387</v>
+        <v>17.79905349224709</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2904857162684704</v>
+        <v>0.2854356039780377</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.294691331113441</v>
+        <v>0.2986569289891896</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>4.273094494948859</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>9.178065925502521</v>
+        <v>9.178065925502532</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.05269454937282819</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.1222996575129184</v>
+        <v>0.1222996575129186</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3007371123478292</v>
+        <v>0.2509871411007054</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.973168677455562</v>
+        <v>4.519688548413082</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.003631070199007455</v>
+        <v>0.002854709365624662</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.0643937492873589</v>
+        <v>0.05729149993459062</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.33775961570865</v>
+        <v>8.63781393159616</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.72618412023972</v>
+        <v>13.64664683687486</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.1062637284649992</v>
+        <v>0.1099424334862568</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.1919804454181162</v>
+        <v>0.1913278008524244</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>3.081321477455357</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>4.202193594998505</v>
+        <v>4.202193594998538</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.03532190578214069</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.0486311663431724</v>
+        <v>0.0486311663431728</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.4850971655326112</v>
+        <v>-0.6312466981161444</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.081829880008992</v>
+        <v>1.101626009235306</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.005890947221617884</v>
+        <v>-0.006781813547727144</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.01220572170216828</v>
+        <v>0.01245725010984974</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.748008533674768</v>
+        <v>6.860286919404023</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>7.127528990232038</v>
+        <v>7.678665558478678</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.07959478601616135</v>
+        <v>0.08062365893464092</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.08527120768746869</v>
+        <v>0.09183819256440796</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>0.8822798123231168</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.148287601176147</v>
+        <v>3.148287601176125</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.009568488203842929</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.03462984245043116</v>
+        <v>0.0346298424504309</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.738605738271272</v>
+        <v>-2.814888327094143</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5605067816926333</v>
+        <v>0.6991448429313217</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.02895068028140706</v>
+        <v>-0.02988520844630399</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.006039936417756909</v>
+        <v>0.007792520725853225</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.58985613071461</v>
+        <v>4.24746832561524</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.976481613923588</v>
+        <v>6.008853215662044</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.0508004126332576</v>
+        <v>0.0475208645768324</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.06746743869975597</v>
+        <v>0.06791080409574113</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>0.8731854600604882</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>2.045614085923919</v>
+        <v>2.045614085923908</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.009004162612803299</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.02158132266805764</v>
+        <v>0.02158132266805752</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.255920123334026</v>
+        <v>-1.299038350279488</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-0.2346772819420521</v>
+        <v>-0.1871410238249334</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01279703532489974</v>
+        <v>-0.01318942593472443</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.002379955912394051</v>
+        <v>-0.001713529107045701</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.209331874786454</v>
+        <v>3.597253539030729</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>4.339093100165427</v>
+        <v>4.416171225062143</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.03360585851468027</v>
+        <v>0.03804035252781093</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.046644292861969</v>
+        <v>0.04782222180343806</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.028210498614171</v>
+        <v>-1.640140042867905</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.659628712215531</v>
+        <v>-3.547740760525772</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.02059047973966967</v>
+        <v>-0.01656836603355425</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.03685231123523854</v>
+        <v>-0.03592318311537188</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.174008429943617</v>
+        <v>3.006831612817374</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3322910919296154</v>
+        <v>0.5311041293865267</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.03317369114550422</v>
+        <v>0.03136356932327478</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.003639341644496018</v>
+        <v>0.005397633316595257</v>
       </c>
     </row>
     <row r="25">
@@ -1040,13 +1040,13 @@
         <v>5.96663150713227</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>7.186119106534539</v>
+        <v>7.186119106534528</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>0.07323359947463934</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.09055344611489202</v>
+        <v>0.09055344611489187</v>
       </c>
     </row>
     <row r="26">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>4.253840705342325</v>
+        <v>4.197141439436405</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>5.18237495872567</v>
+        <v>5.148450608193945</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.05163883296471231</v>
+        <v>0.05065910529043836</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.06419151541831064</v>
+        <v>0.06344289468512533</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>7.645241890468128</v>
+        <v>7.856512911503446</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>9.307003031380546</v>
+        <v>9.298026946054122</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09555481217854778</v>
+        <v>0.09731316709498382</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1192602839145287</v>
+        <v>0.1187628384193022</v>
       </c>
     </row>
     <row r="28">
